--- a/NewsLinks/NewsLinks.xlsx
+++ b/NewsLinks/NewsLinks.xlsx
@@ -424,140 +424,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://administradores.com.br/artigos/com-mais-de-1-3-milh%C3%B5es-de-advogados-h%C3%A1-espa%C3%A7o-para-a-advocacia</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/advogada-suspeita-de-entregar-drogas-para-presos-e-detida-em-penitenciaria-de-campinas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://minhodiario.com/2021/04/10/analise-de-mercado-documento-software-criacao-2021-principais-empresas-globais-tendencias-atuais-da-industria-fatores-de-crescimento-desenvolvimento-e-previsao-para-2025/</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609677,bandeirantes-e-interditada-apos-caminhao-carregado-com-sucata-pegar-fogo.aspx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://cryptoid.com.br/identidade-digital-destaques/o-que-e-o-software-usado-pela-policia-do-rio-para-investigar-celulares-no-caso-henry-borel/</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/caminhao-pega-fogo-e-rodovia-dos-bandeirantes-tem-interdicao-de-pista-em-campinas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.jornaldenegocios.pt/comunicados-de-imprensa/detalhe/tecnologia-na-advocacia-as-vantagens-do-lms-no-novo-normal</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/cameras-de-seguranca-registram-assalto-a-farmacia-em-itapira-video.ghtml</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://revistapegn.globo.com/Tecnologia/noticia/2021/04/empreendedores-desenvolvem-software-que-monitora-e-preve-resultados-de-acoes-judiciais.html</t>
+          <t>https://nodetalhe.com.br/vestibular-de-inverno-2021-puc-campinas-inscricoes-abertas/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://jornaldiadia.com.br/escritorio-de-advocacia-otimiza-atividades-operacionais-com-robos-da-oystr/</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/campinas-completa-5-meses-do-ultimo-dia-sem-morte-por-covid-19.ghtml</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.direitonet.com.br/artigos/exibir/12078/Propriedade-intelectual-e-startups</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609594,campinas-publica-decreto-que-altera-horario-de-comercio-e-shoppings.aspx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.didigalvao.com.br/caape-apoia-jovem-advocacia-subsidiando-ferramentas-de-gestao-de-escritorios-dentro-do-programa-advogar-e-empreender-da-oab-pe/</t>
+          <t>https://www.cidadesemfoco.com/chefe-de-gabinete-de-campinas-do-piaui-representa-municipio-em-forum-estadual-da-juventude/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.segs.com.br/seguros/282492-censo-juridico-aponta-que-lgpd-ainda-nao-e-prioridade-na-area</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609648,confira-o-horario-de-atendimento-no-poupatempo-de-campinas.aspx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://expresso.pt/opiniao/2021-03-22-Ventos-de-mudanca-nos-servicos-juridicos-que-esperar-do-LegalTech--a3e6b0d8</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609641,homem-e-preso-em-paulinia-por-venda-de-bebidas-alcoolicas-falsificadas.aspx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://juristas.com.br/2021/03/15/lawtechs-e-legaltechs/</t>
+          <t>https://liberal.com.br/cidades/campinas/advogada-leva-maconha-sintetica-para-presos-no-cpp-de-campinas-1500403/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.direitonet.com.br/artigos/exibir/12054/STF-decide-que-imposto-sobre-os-softwares-deve-ser-o-ISS</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609634,plano-sp-quais-as-chances-da-regiao-de-campinas-avancar-para-a-fase-laranja.aspx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.em.com.br/app/noticia/emprego/2021/03/13/interna_emprego,1246391/xp-anuncia-abertura-de-60-vagas-para-programa-de-estagio.shtml</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609635,emdec-retoma-inspecoes-para-o-transporte-escolar-taxi-e-fretamento.aspx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.correiobraziliense.com.br/euestudante/trabalho-e-formacao/2021/03/4911359-xp-anuncia-primeiro-programa-de-estagio-com-60-vagas.html</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609627,advogada-e-detida-apos-entregar-drogas-para-detentos-em-prisao-de-campinas.aspx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.economiasc.com/2021/03/08/microsoft-lanca-cursos-gratuitos-para-mulheres-sobre-tecnologia/</t>
+          <t>https://liberal.com.br/cidades/campinas/campinas-altera-o-horario-de-funcionamento-do-comercio-e-servicos-1500426/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.nsctotal.com.br/noticias/empresa-catarinense-de-software-juridico-dobra-de-tamanho-em-dois-anos</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/superlua-rosa-veja-fotos-do-fenomeno-na-regiao-de-campinas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.conjur.com.br/2021-mar-06/juliana-sousa-incidencia-iss-venda-softwares</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/grupo-de-campinas-apresenta-teatro-filme-sobre-trajetorias-femininas-confira-a-programacao.ghtml</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.economiasc.com/2021/03/03/empresa-que-desenvolve-software-juridico-dobra-de-tamanho/</t>
+          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/ultimas-noticias-de-coronavirus-na-regiao-de-campinas-em-27-de-abril-de-2021.ghtml</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://cryptoid.com.br/identidade-digital-destaques/modulacao-de-efeitos-da-incidencia-de-iss-sobre-operacoes-com-software-pode-trazer-inseguranca-juridica-avaliam-tributaristas/</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609613,veja-os-falecimentos-desta-segunda-feira-em-campinas.aspx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.ccfb.com.br/noticias/decisao-do-stf-permite-restituicao-do-icms-sobre-softwares/</t>
+          <t>https://www.acidadeon.com/campinas/cotidiano/coronavirus/NOT,0,0,1608460,saude-multa-shopping-de-campinas-por-falta-de-controle-de-acesso.aspx</t>
         </is>
       </c>
     </row>

--- a/NewsLinks/NewsLinks.xlsx
+++ b/NewsLinks/NewsLinks.xlsx
@@ -424,140 +424,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/advogada-suspeita-de-entregar-drogas-para-presos-e-detida-em-penitenciaria-de-campinas.ghtml</t>
+          <t>https://istoe.com.br/pablo-e-orejuela-treinam-em-campo-no-sao-paulo-veja-provavel-escalacao/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609677,bandeirantes-e-interditada-apos-caminhao-carregado-com-sucata-pegar-fogo.aspx</t>
+          <t>https://valor.globo.com/brasil/noticia/2021/04/27/aluno-de-5o-ano-da-rede-estadual-de-sp-ficou-parado-no-3o-mostra-estudo.ghtml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/caminhao-pega-fogo-e-rodovia-dos-bandeirantes-tem-interdicao-de-pista-em-campinas.ghtml</t>
+          <t>https://noticiando.net/passageira-agredida-na-linha-1-azul-do-metro-morre-em-sao-paulo/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/cameras-de-seguranca-registram-assalto-a-farmacia-em-itapira-video.ghtml</t>
+          <t>https://educacao.estadao.com.br/noticias/geral,governo-de-sp-estima-11-anos-para-recuperar-aprendizagem-perdida-na-pandemia,70003695480</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://nodetalhe.com.br/vestibular-de-inverno-2021-puc-campinas-inscricoes-abertas/</t>
+          <t>https://globoesporte.globo.com/futebol/times/sao-paulo/noticia/escalacao-do-sao-paulo-com-pablo-e-orejuela-crespo-faz-treino-tatico-e-tecnico.ghtml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/campinas-completa-5-meses-do-ultimo-dia-sem-morte-por-covid-19.ghtml</t>
+          <t>https://tecnoblog.net/436545/oi-fibra-chega-em-sao-paulo-com-internet-de-500-mb-s-e-hbo-go-promocional/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609594,campinas-publica-decreto-que-altera-horario-de-comercio-e-shoppings.aspx</t>
+          <t>https://globoesporte.globo.com/futebol/times/sao-paulo/noticia/em-video-hernanes-fala-em-alivio-por-voltar-a-jogar-pelo-sao-paulo-privilegio-colocar-essa-camisa.ghtml</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.cidadesemfoco.com/chefe-de-gabinete-de-campinas-do-piaui-representa-municipio-em-forum-estadual-da-juventude/</t>
+          <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/04/27/cidades-da-grande-sp-antecipam-vacinacao-contra-a-covid-de-grupos-prioritarios.ghtml</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609648,confira-o-horario-de-atendimento-no-poupatempo-de-campinas.aspx</t>
+          <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/04/27/sp-tem-agencias-fechadas-com-paralisacao-de-funcionarios-da-caixa-economica-nesta-terca-feira.ghtml</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609641,homem-e-preso-em-paulinia-por-venda-de-bebidas-alcoolicas-falsificadas.aspx</t>
+          <t>https://agora.folha.uol.com.br/sao-paulo/2021/04/prefeitura-interrompe-enterros-noturnos-na-cidade-de-sao-paulo.shtml</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://liberal.com.br/cidades/campinas/advogada-leva-maconha-sintetica-para-presos-no-cpp-de-campinas-1500403/</t>
+          <t>https://br.noticias.yahoo.com/mulher-morre-apos-ser-agredida-com-marreta-dentro-do-metro-de-sao-paulo-153408849.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609634,plano-sp-quais-as-chances-da-regiao-de-campinas-avancar-para-a-fase-laranja.aspx</t>
+          <t>https://www.gazetaesportiva.com/times/sao-paulo/sem-leo-saida-de-bola-pela-esquerda-vira-desafio-para-o-sao-paulo-na-libertadores/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609635,emdec-retoma-inspecoes-para-o-transporte-escolar-taxi-e-fretamento.aspx</t>
+          <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/04/27/sao-paulo-tem-mais-mortes-por-covid-19-em-4-meses-de-2021-do-que-em-todo-ano-de-2020.ghtml</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609627,advogada-e-detida-apos-entregar-drogas-para-detentos-em-prisao-de-campinas.aspx</t>
+          <t>https://br.investing.com/news/stock-market-news/oi-fibra-chega-a-sao-paulo-com-expectativa-de-atender-2-mi-de-clientes-ate-2022-859203</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://liberal.com.br/cidades/campinas/campinas-altera-o-horario-de-funcionamento-do-comercio-e-servicos-1500426/</t>
+          <t>https://www.opovo.com.br/noticias/economia/2021/04/27/oi-fibra-otica-chega-a-sao-paulo-e-quer-liderar-mercado-de-ultra-banda-larga-no-brasil.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/superlua-rosa-veja-fotos-do-fenomeno-na-regiao-de-campinas.ghtml</t>
+          <t>https://noticias.r7.com/sao-paulo/pai-e-filho-se-passam-por-policiais-civis-e-sao-presos-em-sao-paulo-27042021</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/grupo-de-campinas-apresenta-teatro-filme-sobre-trajetorias-femininas-confira-a-programacao.ghtml</t>
+          <t>https://www.emaisgoias.com.br/maraisa-e-fotografada-saindo-de-salao-de-beleza-em-sao-paulo-fotos/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/04/27/ultimas-noticias-de-coronavirus-na-regiao-de-campinas-em-27-de-abril-de-2021.ghtml</t>
+          <t>https://www.istoedinheiro.com.br/trt-leiloa-bens-e-imoveis-com-60-de-desconto-em-sao-paulo/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/cidades/NOT,0,0,1609613,veja-os-falecimentos-desta-segunda-feira-em-campinas.aspx</t>
+          <t>https://olhardigital.com.br/2021/04/27/coronavirus/covid-19-variante-sueca-do-virus-e-detectada-em-itapecerica-da-serra/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.acidadeon.com/campinas/cotidiano/coronavirus/NOT,0,0,1608460,saude-multa-shopping-de-campinas-por-falta-de-controle-de-acesso.aspx</t>
+          <t>https://br.noticias.yahoo.com/butantan-encontra-tres-novas-variantes-do-coronavirus-em-sao-paulo-140129798.html</t>
         </is>
       </c>
     </row>
